--- a/vignettes/Alameda-May4-v3 output.xlsx
+++ b/vignettes/Alameda-May4-v3 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 16:08:46"</t>
+    <t xml:space="preserve">[1] "2020-05-04 23:36:59"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9002" </t>
+    <t xml:space="preserve">"0.3.0.9003" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v3 output.xlsx
+++ b/vignettes/Alameda-May4-v3 output.xlsx
@@ -17,22 +17,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">bestguess</t>
+    <t xml:space="preserve">upp</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">Posterior Distribution, niter = 0
-Very low number of iterations, DO NOT use for inference</t>
+No credibility interval available</t>
   </si>
   <si>
-    <t xml:space="preserve">bestguess rejected</t>
+    <t xml:space="preserve">User's Prior Projection rejected</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -41,73 +41,10 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
-    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:    2.89094             3                            5         0.0293265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                0.6784383                         7         2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                0.3005138                         5         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                 1.587551                         5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                            TRUE         FALSE                  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$best.guess.params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:        3.5             3                            5              0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                      0.6                         7         2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                      1.5                         7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
-  </si>
-  <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">quartz_off_screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                2 </t>
+    <t xml:space="preserve">NULL</t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -116,376 +53,19 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
-    <t xml:space="preserve">                      internal.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3        3.5          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        internal.name            external.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
   </si>
   <si>
-    <t xml:space="preserve">          Date LowerBound UpperBound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
-  </si>
-  <si>
     <t xml:space="preserve">$extras$Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 23:36:59"</t>
+    <t xml:space="preserve">[1] "2020-05-07 11:10:45"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -494,109 +74,10 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9003" </t>
+    <t xml:space="preserve">"0.3.0.9004" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date    lower     upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
   </si>
   <si>
     <t xml:space="preserve">$internal.args</t>
@@ -686,10 +167,22 @@
     <t xml:space="preserve">[1] TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">$internal.args$plot.observed.data</t>
+    <t xml:space="preserve">$internal.args$plot.observed.data.long.term</t>
   </si>
   <si>
-    <t xml:space="preserve">$internal.args$include.plot.caption</t>
+    <t xml:space="preserve">$internal.args$plot.observed.data.short.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Confirmed COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Probable COVID19"</t>
   </si>
   <si>
     <t xml:space="preserve">$model.inputs</t>
@@ -710,109 +203,13 @@
     <t xml:space="preserve">$model.inputs$end.date</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
+    <t xml:space="preserve">[1] "2020-07-01"</t>
   </si>
   <si>
     <t xml:space="preserve">$observed.data</t>
   </si>
   <si>
-    <t xml:space="preserve">          date     hosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 95.31930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 96.04979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 94.87160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 93.13789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 91.62863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 90.30715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 90.12524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 90.15493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 90.18891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 90.14165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 89.38319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 88.58154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 88.33966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 87.93582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 87.11832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 86.07562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 84.26096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 82.39130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 80.96246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 79.71437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 78.82154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 78.18905</t>
+    <t xml:space="preserve">$upp.params</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +574,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>17.3718249759962</v>
+        <v>15.0253992679555</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1188,7 +585,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>20.080795340641</v>
+        <v>17.5106330876091</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1199,7 +596,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>23.0614819736446</v>
+        <v>20.241235220645</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1210,7 +607,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>26.3488089879319</v>
+        <v>23.2457184619097</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1221,7 +618,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>29.9128205361517</v>
+        <v>26.559283993595</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1232,7 +629,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>33.6922060120291</v>
+        <v>30.1517351127638</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1243,7 +640,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>37.607546906647</v>
+        <v>33.9612701640212</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1254,7 +651,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41.5687014537855</v>
+        <v>37.9078353253304</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1265,7 +662,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45.4804849510327</v>
+        <v>41.9005683726174</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1276,7 +673,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>49.2477411740009</v>
+        <v>45.8435244724337</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1287,7 +684,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>52.7799497167049</v>
+        <v>49.6407881506117</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1298,7 +695,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>56.0468838386611</v>
+        <v>53.2011174202269</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1309,7 +706,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>59.0465585668466</v>
+        <v>56.49404447186</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1320,7 +717,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>61.78985896522</v>
+        <v>59.5175684344549</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1331,7 +728,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>64.2931488602429</v>
+        <v>62.2826611339589</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1342,7 +739,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>66.5747098409825</v>
+        <v>64.8058168845019</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1353,7 +750,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>68.6530276496057</v>
+        <v>67.1054630811621</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1364,7 +761,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>70.5459761611181</v>
+        <v>69.2002329134177</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1375,7 +772,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>72.2704420995934</v>
+        <v>71.1081428283092</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1386,7 +783,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>73.8421692645765</v>
+        <v>72.846214247823</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1397,7 +794,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>75.2757139984371</v>
+        <v>74.4303165493627</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1408,7 +805,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>76.5844580393924</v>
+        <v>75.8751221759407</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1419,7 +816,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>77.7806513271343</v>
+        <v>77.1941195907415</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1430,7 +827,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>78.875470323888</v>
+        <v>78.3996564238184</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1441,7 +838,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>79.879083935319</v>
+        <v>79.5029982583528</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1452,7 +849,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>80.8007224876895</v>
+        <v>80.5143950776041</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1463,7 +860,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>81.6487470352822</v>
+        <v>81.4431507926149</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1474,7 +871,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>82.4307173051027</v>
+        <v>82.2976931028871</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1485,7 +882,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>83.1534572091472</v>
+        <v>83.0856419835001</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1496,7 +893,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>83.8231172534984</v>
+        <v>83.8138757204018</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1507,7 +904,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>84.4452334421483</v>
+        <v>84.4885938177721</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1518,7 +915,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>85.024782461117</v>
+        <v>85.1153763721404</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1529,7 +926,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>85.5662330624438</v>
+        <v>85.6992396971103</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1540,7 +937,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>86.0735936640584</v>
+        <v>86.2446881176227</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1551,7 +948,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>86.550456250571</v>
+        <v>86.7557619498919</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1562,7 +959,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>87.0000367085307</v>
+        <v>87.2360817527296</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1573,7 +970,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>87.4252117626153</v>
+        <v>87.6888889848721</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1584,7 +981,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>87.8285527002157</v>
+        <v>88.1170832361022</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1595,7 +992,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>88.2123560837726</v>
+        <v>88.523256221125</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1606,7 +1003,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>88.5786716552164</v>
+        <v>88.9097227371453</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1617,7 +1014,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>88.929327636678</v>
+        <v>89.278548791131</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1628,7 +1025,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>89.265953627644</v>
+        <v>89.6315771025583</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1639,7 +1036,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>89.5900012919881</v>
+        <v>89.9704501834101</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1650,7 +1047,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>89.9027630196796</v>
+        <v>90.296631190405</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1661,7 +1058,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>90.2053887380931</v>
+        <v>90.6114227357322</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1672,7 +1069,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>90.4989010372376</v>
+        <v>90.915983832613</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1683,7 +1080,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>90.7842087622782</v>
+        <v>91.2113451413195</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1694,9 +1091,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>91.0621192157322</v>
+        <v>91.4984226702477</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>91.7780300755637</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>92.0508896920389</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>92.3176424171196</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>92.5788565601586</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>92.8350357591357</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>93.0866260581626</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>93.3340222306264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>93.5775734249796</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>93.8175882029269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>94.0543390330742</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>94.2880662969705</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>94.5189818588592</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>94.7472722453361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>94.9731014764488</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>95.1966135855454</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>95.4179348613416</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>95.6371758422107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>95.8544330895684</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>96.0697907643997</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>96.2833220284332</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>96.4950902891814</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>96.7051503060103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>96.9135491725579</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>97.1203271891693</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>97.3255186375338</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>97.5291524683844</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>97.7312529119353</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>97.931840019673</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>98.1309301451687</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>98.3285363707379</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>98.5246688860166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>98.7193353238515</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>98.9125410583046</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>99.1381040085087</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>99.445490694104</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>99.8916118298969</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>100.537706877714</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>101.448866763327</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>102.695003935652</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>104.352734430866</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>106.450128671029</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>108.995500727492</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>111.989686886657</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>115.431308730818</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>119.31904446594</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>123.652616449765</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>128.433222100122</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>133.663719506009</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>139.348702355902</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>145.494523405962</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>152.109293301222</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>159.202867435321</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>166.786827220624</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>174.874459197127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>183.480733942791</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>192.622285949457</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>202.317395145839</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>212.585970427141</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>223.449535318134</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>234.931215718558</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>247.055729537899</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1730,7 +1798,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>7.81732123919831</v>
+        <v>6.76142967057996</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1741,7 +1809,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9.03635790328845</v>
+        <v>7.87978488942409</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1752,7 +1820,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10.3776668881401</v>
+        <v>9.10855584929026</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1763,7 +1831,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>11.8569640445694</v>
+        <v>10.4605733078594</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1774,7 +1842,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>13.4607692412683</v>
+        <v>11.9516777971177</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1785,7 +1853,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>15.1614927054131</v>
+        <v>13.5682808007437</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1796,7 +1864,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>16.9233961079912</v>
+        <v>15.2825715738095</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1807,7 +1875,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>18.7059156542035</v>
+        <v>17.0585258963987</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1818,7 +1886,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>20.4662182279647</v>
+        <v>18.8552557676778</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1829,7 +1897,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>22.1614835283004</v>
+        <v>20.6295860125952</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1840,7 +1908,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>23.7509773725172</v>
+        <v>22.3383546677753</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1851,7 +1919,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>25.2210977273975</v>
+        <v>23.9405028391021</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1862,7 +1930,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>26.570951355081</v>
+        <v>25.422320012337</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1873,7 +1941,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>27.805436534349</v>
+        <v>26.7829057955047</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1884,7 +1952,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>28.9319169871093</v>
+        <v>28.0271975102815</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1895,7 +1963,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>29.9586194284421</v>
+        <v>29.1626175980258</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1906,7 +1974,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>30.8938624423226</v>
+        <v>30.197458386523</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1917,7 +1985,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>31.7456892725032</v>
+        <v>31.1401048110379</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1928,7 +1996,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>32.521698944817</v>
+        <v>31.9986642727391</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1939,7 +2007,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>33.2289761690594</v>
+        <v>32.7807964115203</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1950,7 +2018,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>33.8740712992967</v>
+        <v>33.4936424472132</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1961,7 +2029,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>34.4630061177266</v>
+        <v>34.1438049791733</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1972,7 +2040,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>35.0012930972104</v>
+        <v>34.7373538158337</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1983,7 +2051,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>35.4939616457496</v>
+        <v>35.2798453907183</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1994,7 +2062,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>35.9455877708936</v>
+        <v>35.7763492162588</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2005,7 +2073,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>36.3603251194603</v>
+        <v>36.2314777849218</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2016,7 +2084,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>36.741936165877</v>
+        <v>36.6494178566767</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2027,7 +2095,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>37.0938227872962</v>
+        <v>37.0339618962992</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2038,7 +2106,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>37.4190557441162</v>
+        <v>37.388538892575</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2049,7 +2117,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>37.7204027640743</v>
+        <v>37.7162440741808</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2060,7 +2128,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>38.0003550489667</v>
+        <v>38.0198672179975</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2071,7 +2139,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>38.2611521075027</v>
+        <v>38.3019193674632</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2082,7 +2150,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>38.5048048780997</v>
+        <v>38.5646578636996</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2093,7 +2161,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>38.7331171488263</v>
+        <v>38.8101096529302</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2104,7 +2172,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>38.9477053127569</v>
+        <v>39.0400928774514</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2115,7 +2183,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>39.1500165188388</v>
+        <v>39.2562367887283</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2126,7 +2194,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>39.3413452931769</v>
+        <v>39.4600000431924</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2137,7 +2205,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>39.5228487150971</v>
+        <v>39.652687456246</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2148,7 +2216,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>39.6955602376977</v>
+        <v>39.8354652995062</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2159,7 +2227,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>39.8604022448474</v>
+        <v>40.0093752317154</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2170,7 +2238,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>40.0181974365051</v>
+        <v>40.1753469560089</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2181,7 +2249,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>40.1696791324398</v>
+        <v>40.3342096961512</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2192,7 +2260,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>40.3155005813946</v>
+        <v>40.4867025825345</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2203,7 +2271,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>40.4562433588558</v>
+        <v>40.6334840356822</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2214,7 +2282,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>40.5924249321419</v>
+        <v>40.7751402310795</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2225,7 +2293,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>40.7245054667569</v>
+        <v>40.9121927246759</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2236,7 +2304,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>40.8528939430252</v>
+        <v>41.0451053135938</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2247,9 +2315,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>40.9779536470795</v>
+        <v>41.1742902016115</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>41.3001135340037</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>41.4229003614175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>41.5429390877038</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>41.6604854520714</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>41.7757660916111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>41.8889817261732</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>42.0003100037819</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>42.1099080412408</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>42.2179146913171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>42.3244525648834</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>42.4296298336367</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>42.5335418364867</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>42.6362725104012</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>42.737895664402</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>42.8384761134954</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>42.9380706876037</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>43.0367291289948</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>43.1344948903058</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>43.2314058439799</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>43.3274949127949</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>43.4227906301316</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>43.5173176377046</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>43.611097127651</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>43.7041472351262</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>43.7964833868902</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>43.888118610773</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>43.9790638103709</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>44.0693280088528</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>44.1589185653259</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>44.2478413668321</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>44.3361009987075</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>44.4237008957332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>44.5106434762371</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>44.6121468038289</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>44.7504708123468</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>44.9512253234536</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>45.2419680949714</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>45.651990043497</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>46.2127517710433</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>46.9587304938896</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>47.9025579019628</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>49.0479753273715</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>50.3953590989954</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>51.9440889288679</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>53.6935700096732</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>55.6436774023944</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>57.794949945055</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>60.1486737777039</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>62.7069160601561</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>65.4725355326829</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>68.4491819855501</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>71.6412903458944</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>75.0540722492808</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>78.6935066387071</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>82.5663302742562</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>86.6800286772557</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>91.0428278156275</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>95.6636866922133</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>100.55229089316</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>105.719047073351</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>111.175078292054</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2283,7 +3022,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.64472305331856</v>
+        <v>5.74721521999296</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2294,7 +3033,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.68090421779518</v>
+        <v>6.69781715601048</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2305,7 +3044,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.82101685491907</v>
+        <v>7.74227247189672</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2316,7 +3055,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.078419437884</v>
+        <v>8.89148731168045</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2327,7 +3066,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.441653855078</v>
+        <v>10.1589261275501</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2338,7 +3077,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.8872687996011</v>
+        <v>11.5330386806322</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2349,7 +3088,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.3848866917925</v>
+        <v>12.9901858377381</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2360,7 +3099,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.9000283060729</v>
+        <v>14.4997470119389</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2371,7 +3110,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.39628549377</v>
+        <v>16.0269674025261</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2382,7 +3121,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>18.8372609990553</v>
+        <v>17.5351481107059</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2393,7 +3132,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>20.1883307666396</v>
+        <v>18.987601467609</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2404,7 +3143,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>21.4379330682879</v>
+        <v>20.3494274132368</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2415,7 +3154,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>22.5853086518188</v>
+        <v>21.6089720104864</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2426,7 +3165,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>23.6346210541967</v>
+        <v>22.765469926179</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2437,7 +3176,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>24.5921294390429</v>
+        <v>23.8231178837393</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2448,7 +3187,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>25.4648265141758</v>
+        <v>24.788224958322</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2459,7 +3198,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>26.2597830759742</v>
+        <v>25.6678396285445</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2470,7 +3209,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>26.9838358816277</v>
+        <v>26.4690890893823</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2481,7 +3220,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>27.6434441030945</v>
+        <v>27.1988646318283</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2492,7 +3231,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>28.2446297437005</v>
+        <v>27.8636769497923</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2503,7 +3242,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>28.7929606044022</v>
+        <v>28.4695960801312</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2514,7 +3253,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>29.2935552000676</v>
+        <v>29.0222342322973</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2525,7 +3264,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>29.7510991326289</v>
+        <v>29.5267507434586</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2536,7 +3275,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>30.1698673988872</v>
+        <v>29.9878685821105</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2547,7 +3286,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>30.5537496052595</v>
+        <v>30.4098968338199</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2558,7 +3297,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>30.9062763515412</v>
+        <v>30.7967561171836</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2569,7 +3308,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>31.2306457409954</v>
+        <v>31.1520051781752</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2580,7 +3319,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>31.5297493692018</v>
+        <v>31.4788676118543</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2591,7 +3330,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>31.8061973824988</v>
+        <v>31.7802580586888</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2602,7 +3341,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>32.0623423494632</v>
+        <v>32.0588074630537</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2613,7 +3352,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>32.3003017916217</v>
+        <v>32.3168871352978</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2624,7 +3363,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>32.5219792913773</v>
+        <v>32.5566314623437</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2635,7 +3374,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>32.7290841463848</v>
+        <v>32.7799591841447</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2646,7 +3385,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>32.9231495765023</v>
+        <v>32.9885932049907</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2657,7 +3396,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>33.1055495158434</v>
+        <v>33.1840789458337</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2668,7 +3407,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>33.277514041013</v>
+        <v>33.3678012704191</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2679,7 +3418,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>33.4401434992003</v>
+        <v>33.5410000367136</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2690,7 +3429,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>33.5944214078325</v>
+        <v>33.7047843378091</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2701,7 +3440,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>33.741226202043</v>
+        <v>33.8601455045803</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2712,7 +3451,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>33.8813419081203</v>
+        <v>34.0079689469581</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2723,7 +3462,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>34.0154678210293</v>
+        <v>34.1490449126076</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2734,7 +3473,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>34.1442272625738</v>
+        <v>34.2840782417286</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2745,7 +3484,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>34.2681754941854</v>
+        <v>34.4136971951544</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2756,7 +3495,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>34.3878068550274</v>
+        <v>34.5384614303299</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2767,7 +3506,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>34.5035611923206</v>
+        <v>34.6588691964176</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2778,7 +3517,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>34.6158296467434</v>
+        <v>34.7753638159745</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2789,7 +3528,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>34.7249598515714</v>
+        <v>34.8883395165547</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2800,9 +3539,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>34.8312606000176</v>
+        <v>34.9981466713697</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>35.1050965039031</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>35.2094653072049</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>35.3114982245483</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>35.4114126342607</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>35.5094011778694</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>35.6056344672472</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>35.7002635032146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>35.7934218350547</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>35.8852274876195</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>35.9757846801509</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>36.0651853585912</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>36.1535105610137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>36.240831633841</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>36.3272113147417</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>36.4127046964711</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>36.4973600844632</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>36.5812197596456</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>36.6643206567599</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>36.7466949673829</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>36.8283706758757</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>36.9093720356119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>36.9897199920489</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>37.0694325585034</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>37.1485251498573</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>37.2270108788567</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>37.304900819157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>37.3822042388153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>37.4589288075249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>37.535080780527</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>37.6106651618073</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>37.6856858489014</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>37.7601457613732</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>37.8340469548015</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>37.9203247832546</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>38.0379001904948</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>38.2085415249356</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>38.4556728807257</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>38.8041915369725</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>39.2808390053868</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>39.9149209198062</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>40.7171742166684</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>41.6907790282658</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>42.8360552341461</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>44.1524755895377</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>45.6395345082222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>47.2971257920353</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>49.1257074532968</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>51.1263727110483</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>53.3008786511327</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>55.6516552027804</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>58.1818046877176</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>60.8950967940102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>63.7959614118887</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>66.889480642901</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>70.1813807331177</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>73.6780243756673</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>77.3864036432834</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>81.3141336883813</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>85.4694472591864</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>89.8611900123486</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>94.4988165482462</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2836,7 +4246,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>1200.21301302327</v>
+        <v>1080.68699803933</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2847,7 +4257,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>1343.95536475235</v>
+        <v>1209.79663252958</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2858,7 +4268,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>1473.51157231282</v>
+        <v>1354.68468367378</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2869,7 +4279,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1587.13404510977</v>
+        <v>1485.27279943984</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2880,7 +4290,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1681.79913451647</v>
+        <v>1599.79945218096</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2891,7 +4301,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1754.81289031962</v>
+        <v>1695.2169321967</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2902,7 +4312,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1804.3365034873</v>
+        <v>1768.80990494491</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2913,7 +4323,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1829.55510737749</v>
+        <v>1818.72503517552</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2924,7 +4334,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1830.68666485308</v>
+        <v>1844.14112128618</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2935,7 +4345,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1832.13730767286</v>
+        <v>1845.27803811223</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2946,7 +4356,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1833.93484561766</v>
+        <v>1846.73627184569</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2957,7 +4367,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1836.07027198875</v>
+        <v>1848.54389092437</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2968,7 +4378,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1838.51938330456</v>
+        <v>1850.69183452909</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2979,7 +4389,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1841.2528566316</v>
+        <v>1853.15571402092</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2990,7 +4400,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1844.24084033979</v>
+        <v>1855.90597542332</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3001,7 +4411,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1847.45494555243</v>
+        <v>1858.91252925576</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3012,7 +4422,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1850.86901553106</v>
+        <v>1862.14675913704</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3023,7 +4433,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1854.45932939498</v>
+        <v>1865.58229795988</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3034,7 +4444,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1858.20455225226</v>
+        <v>1869.19523357084</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3045,7 +4455,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1862.08557934995</v>
+        <v>1872.96405867565</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3056,7 +4466,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1866.08534334364</v>
+        <v>1876.86951383506</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3067,7 +4477,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1870.18861637027</v>
+        <v>1880.89439324282</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3078,7 +4488,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1874.381820835</v>
+        <v>1885.02334524375</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3089,7 +4499,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1878.65285443432</v>
+        <v>1889.24268162404</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3100,7 +4510,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1882.99093103073</v>
+        <v>1893.54020124566</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3111,7 +4521,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1887.38643722149</v>
+        <v>1897.90502965564</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3122,7 +4532,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1891.83080368553</v>
+        <v>1902.3274745131</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3133,7 +4543,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>1896.31639011111</v>
+        <v>1906.79889591135</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3144,7 +4554,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>1900.83638244726</v>
+        <v>1911.31159038873</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3155,7 +4565,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>1905.38470126134</v>
+        <v>1915.85868736103</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3166,7 +4576,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1909.95592006612</v>
+        <v>1920.43405674863</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3177,7 +4587,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1914.54519257504</v>
+        <v>1925.03222665248</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3188,7 +4598,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1919.14818794066</v>
+        <v>1929.64831002943</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3199,7 +4609,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>1923.76103312376</v>
+        <v>1934.27793941434</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3210,7 +4620,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>1928.38026162676</v>
+        <v>1938.91720882978</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3221,7 +4631,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>1933.00276790338</v>
+        <v>1943.56262211068</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3232,7 +4642,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>1937.62576682867</v>
+        <v>1948.21104695061</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3243,7 +4653,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>1942.24675767768</v>
+        <v>1952.85967404866</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3254,7 +4664,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>1946.8634921199</v>
+        <v>1957.50598080107</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3265,7 +4675,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>1951.47394578876</v>
+        <v>1962.14769904053</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3276,7 +4686,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>1956.076293033</v>
+        <v>1966.7827863792</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3287,7 +4697,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>1960.66888449873</v>
+        <v>1971.40940075888</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3298,7 +4708,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>1965.25022722909</v>
+        <v>1976.02587785449</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3309,7 +4719,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>1969.81896700261</v>
+        <v>1980.63071101534</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3320,7 +4730,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>1974.37387266126</v>
+        <v>1985.2225334628</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3331,7 +4741,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>1978.91382220691</v>
+        <v>1989.80010249369</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3342,7 +4752,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>1983.43779046884</v>
+        <v>1994.36228546615</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3353,9 +4763,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>1987.94483816679</v>
+        <v>1998.90804736908</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>2003.43643979832</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>2007.94659118203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>2012.43769811528</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>2016.90901767938</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>2021.35986063515</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>2025.78958539185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>2030.19759266432</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>2034.58332074071</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>2038.94624129179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>2043.28585566071</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>2047.60169157871</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>2051.89330025871</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>2056.16025382375</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>2060.40214303246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>2064.61857526777</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>2068.80917275891</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>2072.97357101029</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>2077.11141741365</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>2081.22237002257</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>2085.30609647102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>2089.36227301937</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>2093.39058371335</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>2097.39071964318</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>2101.36237829134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>2105.30526295889</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>2109.21908226133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>2113.1035496861</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>2116.95838320467</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>2120.78330493291</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>2124.57804083427</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>2128.34232046083</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>2147.29241949056</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>2182.38411906226</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>2234.78301139947</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>2306.03837997136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>2398.20520620408</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>2513.96182048086</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>2656.74894258848</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>2804.91283040699</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>2959.84046822621</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>3122.36981788717</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>3293.11673481188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>3472.61377397388</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>3661.36946764072</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>3859.8939724562</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>4068.71048883575</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>4288.36065507315</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>4519.40738284292</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>4762.4365981025</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>5018.05850417224</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>5286.90862504313</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>5569.64873474595</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>5866.96771368028</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>6179.58234473283</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>6508.23804949025</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>6853.70955885474</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>7216.80150908615</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>7598.34895210639</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>7999.21776712636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>8420.30495900358</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>8862.53882708579</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3389,7 +5470,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>1896.94218936806</v>
+        <v>1677.40657772253</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -3400,7 +5481,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2158.12708740173</v>
+        <v>1912.09888462008</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3411,7 +5492,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>2419.22446245955</v>
+        <v>2175.36749986643</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3422,7 +5503,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>2680.14125191043</v>
+        <v>2438.54724397001</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3433,7 +5514,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>2937.71645437552</v>
+        <v>2701.54426657262</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3444,7 +5525,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>3188.16348408103</v>
+        <v>2961.17234646455</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3455,7 +5536,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>3427.90926170072</v>
+        <v>3213.61472806178</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3466,7 +5547,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>3653.93248551126</v>
+        <v>3455.26990279628</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3477,7 +5558,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>3863.90740851632</v>
+        <v>3683.0925716632</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3488,7 +5569,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>4079.48838459591</v>
+        <v>3894.73855937766</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3499,7 +5580,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>4297.87031184717</v>
+        <v>4112.03459072155</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3510,7 +5591,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>4517.73779939512</v>
+        <v>4332.1532105744</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3521,7 +5602,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>4738.482211439</v>
+        <v>4553.76852671348</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3532,7 +5613,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>4959.82925595452</v>
+        <v>4776.26702644033</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3543,7 +5624,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>5181.66195049976</v>
+        <v>4999.37220231864</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3554,7 +5635,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>5403.93655651658</v>
+        <v>5222.9661090211</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3565,7 +5646,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>5626.64274264187</v>
+        <v>5447.00462835277</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3576,7 +5657,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>5849.78478113792</v>
+        <v>5671.47731529334</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3587,7 +5668,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>6073.37273884179</v>
+        <v>5896.38844461393</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3598,7 +5679,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>6297.41841022208</v>
+        <v>6121.74813161413</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3609,7 +5690,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>6521.93349401888</v>
+        <v>6347.56823275017</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3620,7 +5701,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>6746.92882559406</v>
+        <v>6573.86050773023</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3631,7 +5712,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>6972.41410084292</v>
+        <v>6800.63584573927</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3642,7 +5723,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>7198.39782428742</v>
+        <v>7027.90398714752</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3653,7 +5734,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>7424.88735512099</v>
+        <v>7255.6734711902</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3664,7 +5745,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>7651.88899205942</v>
+        <v>7483.95168238145</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3675,7 +5756,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>7879.40806968909</v>
+        <v>7712.74493604476</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3686,7 +5767,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>8107.44905407145</v>
+        <v>7942.0585754328</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3697,7 +5778,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>8336.01563245553</v>
+        <v>8171.89706809805</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3708,7 +5789,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>8565.11079525479</v>
+        <v>8402.26409632438</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3719,7 +5800,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>8794.73690995315</v>
+        <v>8633.16263976154</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3730,7 +5811,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>9024.89578726457</v>
+        <v>8864.59504992433</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3741,7 +5822,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>9255.58874013274</v>
+        <v>9096.56311688362</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3752,7 +5833,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>9486.81663623505</v>
+        <v>9329.06812874037</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3763,7 +5844,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>9718.57994465027</v>
+        <v>9562.11092455202</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3774,7 +5855,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>9950.87877730944</v>
+        <v>9795.69194137612</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3785,7 +5866,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>10183.7129257974</v>
+        <v>10029.8112560556</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3796,7 +5877,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>10417.0818940168</v>
+        <v>10264.4686223175</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3807,7 +5888,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>10650.9849271747</v>
+        <v>10499.6635037012</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3818,7 +5899,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>10885.4210375015</v>
+        <v>10735.3951027799</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3829,7 +5910,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="6" t="n">
-        <v>11120.3890270683</v>
+        <v>10971.6623870886</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3840,7 +5921,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="6" t="n">
-        <v>11355.8875080292</v>
+        <v>11208.4641121272</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3851,7 +5932,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="6" t="n">
-        <v>11591.914920577</v>
+        <v>11445.7988417679</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3862,7 +5943,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="6" t="n">
-        <v>11828.4695488713</v>
+        <v>11683.664966358</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3873,7 +5954,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="6" t="n">
-        <v>12065.5495351668</v>
+        <v>11922.0607187789</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3884,7 +5965,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="6" t="n">
-        <v>12303.1528923461</v>
+        <v>12160.9841886912</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3895,7 +5976,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>12541.2775150371</v>
+        <v>12400.4333351709</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3906,9 +5987,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="6" t="n">
-        <v>12779.9211894761</v>
+        <v>12640.4059979201</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>12880.8999072121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>13121.9126927158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>13363.4418913269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>13605.4849541176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>13848.0392525071</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>14091.1020837403</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>14334.6706757549</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>14578.7421915063</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>14823.3137328123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>15068.3823437734</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>15313.9450138172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>15559.9986804096</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>15806.5402314727</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>16053.5665075416</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>16301.0743036917</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>16549.0603712627</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>16797.5214194024</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>17046.4541164532</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>17295.8550911969</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>17545.7209339771</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>17796.0481977126</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>18046.8333988143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>18298.0730180177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>18549.7635011413</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>18801.9012597793</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>19054.4826719364</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>19307.5040826136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>19560.9618043476</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>19814.8521177138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>20069.1712717939</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>20323.9154846146</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>20594.2974863234</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>20881.2694791104</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>21186.9673021094</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>21514.4294890718</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>21867.5178426008</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>22250.9644951644</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>22670.5099406169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>23107.0855103176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>23565.0157619241</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>24046.8541636901</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>24554.4441778121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>25089.3695998245</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>25653.1466661817</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>26247.3070106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>26873.4345210091</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>27533.1827643334</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>28228.2842565166</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>28960.5563449622</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>29731.9057160707</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>30544.3323746618</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>31399.9334481074</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>32300.9069582046</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>33249.5556141413</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>34248.2906409454</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>35299.6356401839</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>36406.2304709616</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>37570.8351341871</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>38796.3336393919</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>40085.7378301541</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>41442.1911409834</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3933,62 +6685,62 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -3998,67 +6750,67 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -4068,1401 +6820,351 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v3 output.xlsx
+++ b/vignettes/Alameda-May4-v3 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -41,10 +41,49 @@
     <t xml:space="preserve">$all.params</t>
   </si>
   <si>
+    <t xml:space="preserve">   r0.initial latent.period illness.length.given.nonhosp prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:    2.89094             3                            5         0.0293265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                0.6784383                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                0.3005138                         5         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   intervention3.multiplier intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                 1.587551                         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   patients.in.hosp.are.infectious use.hosp.rate exposed.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE         FALSE                  10</t>
+  </si>
+  <si>
     <t xml:space="preserve">$devlist</t>
   </si>
   <si>
-    <t xml:space="preserve">NULL</t>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
   </si>
   <si>
     <t xml:space="preserve">$extras</t>
@@ -53,19 +92,388 @@
     <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
   </si>
   <si>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15                 0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3                 3.5          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8                  10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5                 0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
   </si>
   <si>
+    <t xml:space="preserve">        internal.name            external.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-07-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
   </si>
   <si>
+    <t xml:space="preserve">          Date LowerBound UpperBound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$Internal</t>
   </si>
   <si>
+    <t xml:space="preserve">                    internal.name             value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:               search.max.iter                20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               search.expander                 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:           search.num.init.exp                 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:               max.nonconverge              0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                   random.seed             12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:                output.filestr                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:      add.timestamp.to.filestr             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:           min.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:           max.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:               main.iterations                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:         simulation.start.date        2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        lower.bound.multiplier               0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:        upper.bound.multiplier               1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:            required.in.bounds                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                 show.progress              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:  plot.observed.data.long.term             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: plot.observed.data.short.term              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:             lower.bound.label Confirmed COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:             upper.bound.label  Probable COVID19</t>
+  </si>
+  <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 11:10:45"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:55:21"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -80,6 +488,105 @@
     <t xml:space="preserve">$hosp.bounds</t>
   </si>
   <si>
+    <t xml:space="preserve">          date    lower     upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
+  </si>
+  <si>
     <t xml:space="preserve">$internal.args</t>
   </si>
   <si>
@@ -209,7 +716,127 @@
     <t xml:space="preserve">$observed.data</t>
   </si>
   <si>
+    <t xml:space="preserve">          date     hosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 95.31930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 96.04979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 94.87160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 93.13789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 91.62863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 90.30715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 90.12524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 90.15493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 90.18891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 90.14165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 89.38319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 88.58154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 88.33966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 87.93582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 87.11832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 86.07562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 84.26096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 82.39130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 80.96246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 79.71437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 78.82154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 78.18905</t>
+  </si>
+  <si>
     <t xml:space="preserve">$upp.params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:        3.5             3                            5              0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.6                         7         2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      1.5                         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
   </si>
 </sst>
 </file>
@@ -6685,62 +7312,62 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -6750,377 +7377,377 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
@@ -7130,27 +7757,27 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -7160,11 +7787,1111 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
         <v>5</v>
       </c>
     </row>
